--- a/datos/GTM_Balances_Energeticos_2013-2020.xlsx
+++ b/datos/GTM_Balances_Energeticos_2013-2020.xlsx
@@ -1,8 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_gt\datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B216728-B6FD-4892-AB23-7208B4FCB500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013 - Guatemala" sheetId="2" r:id="rId1"/>
@@ -14,12 +22,12 @@
     <sheet name="2019 - Guatemala" sheetId="8" r:id="rId7"/>
     <sheet name="2020 - Guatemala" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="63">
   <si>
     <t>Matriz de balance energético</t>
   </si>
@@ -213,8 +221,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
@@ -224,6 +232,7 @@
       <b/>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -240,7 +249,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -254,6 +269,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -272,6 +288,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -287,7 +311,13 @@
     <xdr:ext cx="921385" cy="289560"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -299,7 +329,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -319,7 +351,13 @@
     <xdr:ext cx="921385" cy="289560"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -331,7 +369,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -351,7 +391,13 @@
     <xdr:ext cx="921385" cy="289560"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -363,7 +409,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -383,7 +431,13 @@
     <xdr:ext cx="921385" cy="289560"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -395,7 +449,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -415,7 +471,13 @@
     <xdr:ext cx="921385" cy="289560"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -427,7 +489,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -447,7 +511,13 @@
     <xdr:ext cx="921385" cy="289560"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -459,7 +529,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -479,7 +551,13 @@
     <xdr:ext cx="921385" cy="289560"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -491,7 +569,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -511,7 +591,13 @@
     <xdr:ext cx="921385" cy="289560"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -523,7 +609,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -536,10 +624,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -815,57 +903,60 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -937,7 +1028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -1009,7 +1100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1073,7 +1164,7 @@
         <v>347513.91840862174</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1135,7 +1226,7 @@
         <v>188742.14561749678</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1197,7 +1288,7 @@
         <v>29720.680291400888</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1346,7 @@
         <v>-5308.643394688901</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1374,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1347,7 +1438,7 @@
         <v>501226.74034002877</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1397,7 +1488,7 @@
         <v>-139.35733275639441</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1447,7 +1538,7 @@
         <v>-70362.794750920366</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1491,7 +1582,7 @@
         <v>-21710.536935673968</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1519,7 +1610,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +1648,7 @@
         <v>-2162.193664700811</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1585,7 +1676,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1613,7 +1704,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1641,7 +1732,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1691,7 +1782,7 @@
         <v>-94374.882684051539</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1727,7 +1818,7 @@
         <v>1399.0433488335718</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1761,7 +1852,7 @@
         <v>4314.7624289929954</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -1789,19 +1880,19 @@
         <v>839.36273787963137</v>
       </c>
       <c r="M24" s="5">
-        <v>0.058065555290026494</v>
+        <v>5.8065555290026494E-2</v>
       </c>
       <c r="N24" s="5">
         <v>0.92904888502065819</v>
       </c>
       <c r="O24" s="5">
-        <v>0.051991607903270266</v>
+        <v>5.1991607903270266E-2</v>
       </c>
       <c r="P24" s="5">
         <v>1495.9429015845496</v>
       </c>
       <c r="Q24" s="5">
-        <v>-0.058065555303064044</v>
+        <v>-5.8065555303064044E-2</v>
       </c>
       <c r="R24" s="5">
         <v>1.5182965537960361E-11</v>
@@ -1821,7 +1912,7 @@
         <v>2336.2866799568101</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1861,7 +1952,7 @@
         <v>97261.140660672405</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,7 +1998,7 @@
         <v>26439.395760540952</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,7 +2042,7 @@
         <v>258401.70234784242</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1997,7 +2088,7 @@
         <v>15575.028884904777</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -2025,7 +2116,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2053,7 +2144,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -2105,7 +2196,7 @@
         <v>397677.26765396044</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -2139,7 +2230,7 @@
         <v>1124.4975442334701</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -2193,69 +2284,67 @@
         <v>398801.7651981939</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-    </row>
+    <row r="36" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -2327,7 +2416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -2399,7 +2488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2455,7 +2544,7 @@
         <v>359057.12456321315</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2596,7 @@
         <v>213099.31056443628</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2555,7 +2644,7 @@
         <v>35319.883724886786</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,7 +2698,7 @@
         <v>-11273.369498883843</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2637,7 +2726,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -2703,7 +2792,7 @@
         <v>525563.18190387881</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -2745,7 +2834,7 @@
         <v>-166.18361931200425</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2797,7 +2886,7 @@
         <v>-73208.819879137809</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -2843,7 +2932,7 @@
         <v>-18163.718620357777</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -2871,7 +2960,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2909,7 +2998,7 @@
         <v>-2222.379700115901</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2937,7 +3026,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2965,7 +3054,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -2993,7 +3082,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -3045,7 +3134,7 @@
         <v>-93761.101818923489</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -3083,7 +3172,7 @@
         <v>4876.3453353674913</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -3117,12 +3206,12 @@
         <v>4722.9942037801384</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="5">
-        <v>0.058065555363960936</v>
+        <v>5.8065555363960936E-2</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="5">
@@ -3148,10 +3237,10 @@
         <v>-2.6405157457322365E-12</v>
       </c>
       <c r="N24" s="5">
-        <v>0.058065555591045287</v>
+        <v>5.8065555591045287E-2</v>
       </c>
       <c r="O24" s="5">
-        <v>0.05806555532633359</v>
+        <v>5.806555532633359E-2</v>
       </c>
       <c r="P24" s="5">
         <v>178.78384481559635</v>
@@ -3166,7 +3255,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="5">
-        <v>-0.05806555531560649</v>
+        <v>-5.806555531560649E-2</v>
       </c>
       <c r="W24" s="5">
         <v>-1320.0623345343101</v>
@@ -3175,7 +3264,7 @@
         <v>421.96239047537262</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -3215,7 +3304,7 @@
         <v>104776.27515733744</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -3261,7 +3350,7 @@
         <v>34675.530257554477</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -3305,7 +3394,7 @@
         <v>264756.7267311028</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -3351,7 +3440,7 @@
         <v>16118.284504245899</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,7 +3468,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -3407,7 +3496,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -3459,7 +3548,7 @@
         <v>420326.81665024068</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -3493,7 +3582,7 @@
         <v>1453.9615050917118</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -3547,69 +3636,71 @@
         <v>421780.77815533231</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -3681,7 +3772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -3753,7 +3844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -3813,7 +3904,7 @@
         <v>360292.58999755996</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -3867,7 +3958,7 @@
         <v>261950.38484108137</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -3919,7 +4010,7 @@
         <v>40962.926652635739</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3973,7 +4064,7 @@
         <v>-24480.263924207316</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -4001,7 +4092,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -4067,7 +4158,7 @@
         <v>556799.78426179825</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -4113,7 +4204,7 @@
         <v>-136.10566165874587</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -4165,7 +4256,7 @@
         <v>-83539.37895636959</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -4211,7 +4302,7 @@
         <v>-15882.671345356865</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -4239,7 +4330,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -4277,7 +4368,7 @@
         <v>-2287.7667411843772</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4305,7 +4396,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -4333,7 +4424,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -4361,7 +4452,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4413,7 +4504,7 @@
         <v>-101845.92270456959</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -4451,7 +4542,7 @@
         <v>3987.3036179370101</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -4485,7 +4576,7 @@
         <v>4826.1766955751973</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -4515,7 +4606,7 @@
         <v>-2.0067919667564999E-10</v>
       </c>
       <c r="M24" s="5">
-        <v>0.058065555342836805</v>
+        <v>5.8065555342836805E-2</v>
       </c>
       <c r="N24" s="5">
         <v>3.1686188948786844E-11</v>
@@ -4530,22 +4621,22 @@
         <v>-3.1686188948786844E-11</v>
       </c>
       <c r="R24" s="5">
-        <v>-0.058065555296627783</v>
+        <v>-5.8065555296627783E-2</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="5">
-        <v>0.0580655553151114</v>
+        <v>5.80655553151114E-2</v>
       </c>
       <c r="W24" s="5">
-        <v>0.058065555031255954</v>
+        <v>5.8065555031255954E-2</v>
       </c>
       <c r="X24" s="5">
-        <v>0.058065555369241968</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>5.8065555369241968E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -4585,7 +4676,7 @@
         <v>119774.08550524649</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -4631,7 +4722,7 @@
         <v>37851.94839551521</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4675,7 +4766,7 @@
         <v>270789.39603584353</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4721,7 +4812,7 @@
         <v>16781.327967684545</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -4749,7 +4840,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -4777,7 +4868,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -4829,7 +4920,7 @@
         <v>445196.75790428964</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -4863,7 +4954,7 @@
         <v>943.5652738714183</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -4917,69 +5008,72 @@
         <v>446140.32317816111</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -5051,7 +5145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -5123,7 +5217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -5185,7 +5279,7 @@
         <v>407086.54634857457</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -5239,7 +5333,7 @@
         <v>263063.38540536258</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -5293,7 +5387,7 @@
         <v>40943.474691605181</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -5347,7 +5441,7 @@
         <v>-9579.2488570086098</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -5375,7 +5469,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -5441,7 +5535,7 @@
         <v>619627.20820532343</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -5487,7 +5581,7 @@
         <v>-118.80212617482238</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -5539,7 +5633,7 @@
         <v>-107479.98160947746</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -5585,7 +5679,7 @@
         <v>-25453.442631289439</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -5613,7 +5707,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -5651,7 +5745,7 @@
         <v>-2341.7345317463</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -5679,7 +5773,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -5707,7 +5801,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -5735,7 +5829,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5787,7 +5881,7 @@
         <v>-135393.960898688</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -5823,7 +5917,7 @@
         <v>4788.5502157309611</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -5859,7 +5953,7 @@
         <v>5154.7696731036885</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -5879,20 +5973,20 @@
         <v>-2.1124125965857894E-10</v>
       </c>
       <c r="I24" s="5">
-        <v>0.05806555531643165</v>
+        <v>5.806555531643165E-2</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="5">
-        <v>0.058065555115752454</v>
+        <v>5.8065555115752454E-2</v>
       </c>
       <c r="L24" s="5">
         <v>7.393444088050264E-11</v>
       </c>
       <c r="M24" s="5">
-        <v>-0.058065555361320416</v>
+        <v>-5.8065555361320416E-2</v>
       </c>
       <c r="N24" s="5">
-        <v>-0.058065555569921164</v>
+        <v>-5.8065555569921164E-2</v>
       </c>
       <c r="O24" s="5">
         <v>-5.9411604278975324E-12</v>
@@ -5914,10 +6008,10 @@
         <v>-0.11613111078073218</v>
       </c>
       <c r="X24" s="5">
-        <v>-0.058065555707227982</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>-5.8065555707227982E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -5957,7 +6051,7 @@
         <v>128705.20663382765</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -6003,7 +6097,7 @@
         <v>38918.55458109943</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -6047,7 +6141,7 @@
         <v>287361.34539953334</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -6093,7 +6187,7 @@
         <v>18802.902143196421</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -6121,7 +6215,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -6149,7 +6243,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -6201,7 +6295,7 @@
         <v>473788.00875765685</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -6235,7 +6329,7 @@
         <v>501.97672569959457</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -6289,69 +6383,71 @@
         <v>474289.9854833564</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A3:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.43" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -6423,7 +6519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -6495,7 +6591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -6561,7 +6657,7 @@
         <v>401006.05002726254</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -6617,7 +6713,7 @@
         <v>245664.97080405834</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -6673,7 +6769,7 @@
         <v>36444.729662452191</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -6729,7 +6825,7 @@
         <v>-4410.1950572973756</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -6757,7 +6853,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -6823,7 +6919,7 @@
         <v>605816.0961115713</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -6873,7 +6969,7 @@
         <v>-184.99685923411158</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -6925,7 +7021,7 @@
         <v>-78726.557338516781</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -6969,7 +7065,7 @@
         <v>-14759.451243340325</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -6997,7 +7093,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -7035,7 +7131,7 @@
         <v>-2456.663162702524</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -7063,7 +7159,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -7091,7 +7187,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -7119,7 +7215,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -7171,7 +7267,7 @@
         <v>-96127.668603793747</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -7211,7 +7307,7 @@
         <v>5154.0148208846067</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -7251,16 +7347,16 @@
         <v>5454.3879385299388</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="5">
-        <v>-0.058065555319732294</v>
+        <v>-5.8065555319732294E-2</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="5">
-        <v>0.058065555226654117</v>
+        <v>5.8065555226654117E-2</v>
       </c>
       <c r="E24" s="5">
         <v>-5.2810314914644729E-12</v>
@@ -7285,7 +7381,7 @@
         <v>1.3730681877807633E-10</v>
       </c>
       <c r="O24" s="5">
-        <v>0.058065555309170236</v>
+        <v>5.8065555309170236E-2</v>
       </c>
       <c r="P24" s="5">
         <v>6.3372377897573688E-11</v>
@@ -7305,13 +7401,13 @@
         <v>1.6503223410826478E-13</v>
       </c>
       <c r="W24" s="5">
-        <v>0.058065555453738475</v>
+        <v>5.8065555453738475E-2</v>
       </c>
       <c r="X24" s="5">
-        <v>0.058065556129710504</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>5.8065556129710504E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -7351,7 +7447,7 @@
         <v>134328.27501054743</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -7397,7 +7493,7 @@
         <v>41256.622231419838</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -7441,7 +7537,7 @@
         <v>303072.4542393171</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -7487,7 +7583,7 @@
         <v>19305.317786148207</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -7515,7 +7611,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -7543,7 +7639,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -7595,7 +7691,7 @@
         <v>497962.66926743265</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -7629,7 +7725,7 @@
         <v>1117.2974153743896</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -7683,69 +7779,71 @@
         <v>499079.96668280702</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A3:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.43" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -7817,7 +7915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -7889,7 +7987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -7955,7 +8053,7 @@
         <v>401474.29761129676</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -8011,7 +8109,7 @@
         <v>250858.9625339325</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -8067,7 +8165,7 @@
         <v>32841.358613003198</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -8123,7 +8221,7 @@
         <v>2882.6694473686289</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -8151,7 +8249,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -8217,7 +8315,7 @@
         <v>622374.5709795946</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -8267,7 +8365,7 @@
         <v>-288.19319630577257</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -8321,7 +8419,7 @@
         <v>-81988.682639120641</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -8367,7 +8465,7 @@
         <v>-11562.192931642361</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -8395,7 +8493,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -8433,7 +8531,7 @@
         <v>-2576.4087087284734</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -8461,7 +8559,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -8489,7 +8587,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -8517,7 +8615,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -8571,7 +8669,7 @@
         <v>-96415.477475797248</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -8613,7 +8711,7 @@
         <v>10363.27330505751</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -8655,7 +8753,7 @@
         <v>5244.9047761430893</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -8713,7 +8811,7 @@
         <v>1.6899300772686313E-10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -8753,7 +8851,7 @@
         <v>139489.26832141954</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -8799,7 +8897,7 @@
         <v>37754.847708634799</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -8843,7 +8941,7 @@
         <v>310144.73574854218</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -8889,7 +8987,7 @@
         <v>20389.845454541057</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -8917,7 +9015,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -8945,7 +9043,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -8997,7 +9095,7 @@
         <v>507778.69723313762</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -9031,7 +9129,7 @@
         <v>2572.2181894590831</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -9085,69 +9183,71 @@
         <v>510350.91542259668</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A3:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.43" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -9219,7 +9319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -9291,7 +9391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -9341,7 +9441,7 @@
         <v>407382.41590457957</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -9393,7 +9493,7 @@
         <v>297030.13096905343</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -9443,7 +9543,7 @@
         <v>29518.135880086993</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -9499,7 +9599,7 @@
         <v>-32412.293164976298</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -9527,7 +9627,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -9591,7 +9691,7 @@
         <v>642482.11782856972</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -9629,7 +9729,7 @@
         <v>-269.4206175589029</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -9679,7 +9779,7 @@
         <v>-95884.437705072487</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -9723,7 +9823,7 @@
         <v>-309.17501164818799</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -9751,7 +9851,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -9779,7 +9879,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -9807,7 +9907,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -9835,7 +9935,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -9863,7 +9963,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -9913,7 +10013,7 @@
         <v>-96463.033334279549</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -9947,7 +10047,7 @@
         <v>2830.0210583757962</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -9981,7 +10081,7 @@
         <v>5708.972864299245</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -10023,7 +10123,7 @@
         <v>10969.865485892038</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -10063,7 +10163,7 @@
         <v>140473.99699002289</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -10109,7 +10209,7 @@
         <v>47230.197951884351</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -10151,7 +10251,7 @@
         <v>314976.83480536478</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -10195,7 +10295,7 @@
         <v>20011.019679061505</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -10223,7 +10323,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -10251,7 +10351,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -10301,7 +10401,7 @@
         <v>522692.04942633351</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -10335,7 +10435,7 @@
         <v>3818.1756593895461</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -10387,74 +10487,77 @@
         <v>526510.2250857231</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A3:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.86" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.43" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -10526,7 +10629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -10598,7 +10701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -10662,7 +10765,7 @@
         <v>414396.85507661954</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -10726,7 +10829,7 @@
         <v>232900.12945134926</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -10790,7 +10893,7 @@
         <v>21475.023043315647</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -10850,7 +10953,7 @@
         <v>-2660.215351208933</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -10878,7 +10981,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -10942,7 +11045,7 @@
         <v>623161.74613344413</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -10992,7 +11095,7 @@
         <v>-203.11331249244446</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -11042,7 +11145,7 @@
         <v>-79866.268058242596</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -11084,7 +11187,7 @@
         <v>-4061.3952665191596</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -11112,7 +11215,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -11140,7 +11243,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -11168,7 +11271,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -11196,7 +11299,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -11224,7 +11327,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -11274,7 +11377,7 @@
         <v>-84130.776637254196</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -11322,7 +11425,7 @@
         <v>2859.08987816337</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -11370,7 +11473,7 @@
         <v>5595.8356312776887</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -11384,45 +11487,45 @@
         <v>-4.2248251931715783E-11</v>
       </c>
       <c r="I24" s="5">
-        <v>0.05806555531643165</v>
+        <v>5.806555531643165E-2</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="5">
-        <v>0.058065555242497208</v>
+        <v>5.8065555242497208E-2</v>
       </c>
       <c r="L24" s="5">
         <v>-5.2810314914644729E-12</v>
       </c>
       <c r="M24" s="5">
-        <v>-0.058065555313791137</v>
+        <v>-5.8065555313791137E-2</v>
       </c>
       <c r="N24" s="5">
-        <v>0.05806555531643165</v>
+        <v>5.806555531643165E-2</v>
       </c>
       <c r="O24" s="5">
-        <v>0.058065555314781324</v>
+        <v>5.8065555314781324E-2</v>
       </c>
       <c r="P24" s="5">
-        <v>-0.05806555531643165</v>
+        <v>-5.806555531643165E-2</v>
       </c>
       <c r="Q24" s="5">
         <v>0.1161311106302228</v>
       </c>
       <c r="R24" s="5">
-        <v>-0.05806555531643165</v>
+        <v>-5.806555531643165E-2</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="5">
-        <v>0.058065555369241968</v>
+        <v>5.8065555369241968E-2</v>
       </c>
       <c r="X24" s="5">
         <v>0.11613111065398743</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -11462,7 +11565,7 @@
         <v>137464.97630867289</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -11508,7 +11611,7 @@
         <v>46672.977231218363</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -11550,7 +11653,7 @@
         <v>323908.82918123988</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -11594,7 +11697,7 @@
         <v>20568.445528179986</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -11622,7 +11725,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -11650,7 +11753,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -11700,7 +11803,7 @@
         <v>528615.2282493111</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -11734,7 +11837,7 @@
         <v>1960.6996063271497</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -11786,17 +11889,18 @@
         <v>530575.92785563821</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>